--- a/report/tables.xlsx
+++ b/report/tables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Pfa</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Task 3.5</t>
-  </si>
-  <si>
-    <t>[peak, peak_side, mean_side</t>
   </si>
   <si>
     <t>Peak (dB)</t>
@@ -63,6 +60,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J9" sqref="G2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,13 +416,13 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -440,13 +441,13 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>26.8484536164441</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>20.8278537031645</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>3.3828479820070698</v>
       </c>
     </row>
@@ -466,13 +467,13 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>30.370278797557798</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>20.8278537031645</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>1.02305044894763</v>
       </c>
     </row>
@@ -492,13 +493,13 @@
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>32.8690535297238</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>20.8278537031645</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>3.1784646783733499</v>
       </c>
     </row>
@@ -512,13 +513,13 @@
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>34.807253789884903</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>20.8278537031645</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>1.87362085755716</v>
       </c>
     </row>
@@ -526,13 +527,13 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>37.729814503449603</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>20.8278537031645</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>2.2082496682340702</v>
       </c>
     </row>
@@ -540,13 +541,13 @@
       <c r="G8">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>41.655707406329</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>20.8278537031645</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>2.4987747321659999</v>
       </c>
     </row>
@@ -554,19 +555,14 @@
       <c r="G9">
         <v>7</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>43.106720749301203</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>22.2788670461367</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>2.57490045729342</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J20" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/report/tables.xlsx
+++ b/report/tables.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\416\correlator\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Pfa</t>
   </si>
@@ -54,16 +54,34 @@
   </si>
   <si>
     <t>Mean Sidelobe (dB)</t>
+  </si>
+  <si>
+    <t>Task 4</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Epochs (Theoretical)</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>(Top 10)</t>
+  </si>
+  <si>
+    <t>Epochs (Top Ten)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +89,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -88,13 +120,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="G2:J9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27:AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,9 +499,10 @@
     <col min="8" max="8" width="9.42578125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -398,8 +512,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -424,8 +541,17 @@
       <c r="J2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -442,16 +568,21 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>26.8484536164441</v>
+        <v>14.1497334797082</v>
       </c>
       <c r="I3" s="1">
-        <v>20.8278537031645</v>
+        <v>11.1394335230684</v>
       </c>
       <c r="J3" s="1">
-        <v>3.3828479820070698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.70261715394957</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.01</v>
       </c>
@@ -468,16 +599,25 @@
         <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>30.370278797557798</v>
+        <v>15.910646070265001</v>
       </c>
       <c r="I4" s="1">
-        <v>20.8278537031645</v>
+        <v>11.1394335230684</v>
       </c>
       <c r="J4" s="1">
-        <v>1.02305044894763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.53684858962776505</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8">
+        <v>32</v>
+      </c>
+      <c r="N4" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1E-3</v>
       </c>
@@ -494,16 +634,22 @@
         <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>32.8690535297238</v>
+        <v>17.160033436348002</v>
       </c>
       <c r="I5" s="1">
-        <v>20.8278537031645</v>
+        <v>11.1394335230684</v>
       </c>
       <c r="J5" s="1">
-        <v>3.1784646783733499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6166154363303999</v>
+      </c>
+      <c r="L5" s="8">
+        <v>2</v>
+      </c>
+      <c r="M5" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1E-4</v>
       </c>
@@ -514,58 +660,334 @@
         <v>4</v>
       </c>
       <c r="H6" s="1">
-        <v>34.807253789884903</v>
+        <v>18.1291335664286</v>
       </c>
       <c r="I6" s="1">
-        <v>20.8278537031645</v>
+        <v>11.1394335230684</v>
       </c>
       <c r="J6" s="1">
-        <v>1.87362085755716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.96910013008056395</v>
+      </c>
+      <c r="L6" s="8">
+        <v>3</v>
+      </c>
+      <c r="M6" s="8">
+        <v>114</v>
+      </c>
+      <c r="N6" s="8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>37.729814503449603</v>
+        <v>19.5904139232109</v>
       </c>
       <c r="I7" s="1">
-        <v>20.8278537031645</v>
+        <v>11.1394335230684</v>
       </c>
       <c r="J7" s="1">
-        <v>2.2082496682340702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.1394335230683701</v>
+      </c>
+      <c r="L7" s="8">
+        <v>4</v>
+      </c>
+      <c r="M7" s="8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" s="1">
-        <v>41.655707406329</v>
+        <v>21.553360374650602</v>
       </c>
       <c r="I8" s="1">
-        <v>20.8278537031645</v>
+        <v>11.1394335230684</v>
       </c>
       <c r="J8" s="1">
-        <v>2.4987747321659999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.28745022864671</v>
+      </c>
+      <c r="L8" s="8">
+        <v>5</v>
+      </c>
+      <c r="M8" s="8">
+        <v>383</v>
+      </c>
+      <c r="N8" s="8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>7</v>
       </c>
       <c r="H9" s="1">
-        <v>43.106720749301203</v>
+        <v>22.2788670461367</v>
       </c>
       <c r="I9" s="1">
-        <v>22.2788670461367</v>
+        <v>11.1394335230684</v>
       </c>
       <c r="J9" s="1">
-        <v>2.57490045729342</v>
+        <v>1.32625565274591</v>
+      </c>
+      <c r="L9" s="8">
+        <v>6</v>
+      </c>
+      <c r="M9" s="8">
+        <v>391</v>
+      </c>
+      <c r="N9" s="8">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10" s="8">
+        <v>7</v>
+      </c>
+      <c r="M10" s="8">
+        <v>506</v>
+      </c>
+      <c r="N10" s="8">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L11" s="8">
+        <v>8</v>
+      </c>
+      <c r="M11" s="8">
+        <v>522</v>
+      </c>
+      <c r="N11" s="8">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L12" s="8">
+        <v>9</v>
+      </c>
+      <c r="M12" s="8">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L13" s="8">
+        <v>10</v>
+      </c>
+      <c r="M13" s="8">
+        <v>549</v>
+      </c>
+      <c r="N13" s="8">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14" s="8">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>615</v>
+      </c>
+      <c r="N14" s="8">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L15" s="8">
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L16" s="8">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="17" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="L17" s="8">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>895</v>
+      </c>
+      <c r="N17" s="8">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="18" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="L18" s="8">
+        <v>15</v>
+      </c>
+      <c r="M18">
+        <v>908</v>
+      </c>
+      <c r="N18" s="8">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="19" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="L19" s="8">
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="27" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" s="8">
+        <v>1</v>
+      </c>
+      <c r="P27" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>3</v>
+      </c>
+      <c r="R27" s="8">
+        <v>4</v>
+      </c>
+      <c r="S27" s="8">
+        <v>5</v>
+      </c>
+      <c r="T27" s="8">
+        <v>6</v>
+      </c>
+      <c r="U27" s="8">
+        <v>7</v>
+      </c>
+      <c r="V27" s="8">
+        <v>8</v>
+      </c>
+      <c r="W27" s="8">
+        <v>9</v>
+      </c>
+      <c r="X27" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>11</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>12</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>13</v>
+      </c>
+      <c r="AB27" s="8">
+        <v>14</v>
+      </c>
+      <c r="AC27" s="8">
+        <v>15</v>
+      </c>
+      <c r="AD27" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="8">
+        <v>32</v>
+      </c>
+      <c r="P28" s="8">
+        <v>57</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>114</v>
+      </c>
+      <c r="R28" s="8">
+        <v>301</v>
+      </c>
+      <c r="S28" s="8">
+        <v>383</v>
+      </c>
+      <c r="T28" s="8">
+        <v>391</v>
+      </c>
+      <c r="U28" s="8">
+        <v>506</v>
+      </c>
+      <c r="V28" s="8">
+        <v>522</v>
+      </c>
+      <c r="W28" s="8">
+        <v>535</v>
+      </c>
+      <c r="X28" s="8">
+        <v>549</v>
+      </c>
+      <c r="Y28">
+        <v>615</v>
+      </c>
+      <c r="Z28">
+        <v>636</v>
+      </c>
+      <c r="AA28">
+        <v>845</v>
+      </c>
+      <c r="AB28">
+        <v>895</v>
+      </c>
+      <c r="AC28">
+        <v>908</v>
+      </c>
+      <c r="AD28">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="29" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="8">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>114</v>
+      </c>
+      <c r="S29" s="8">
+        <v>383</v>
+      </c>
+      <c r="T29" s="8">
+        <v>391</v>
+      </c>
+      <c r="U29" s="8">
+        <v>506</v>
+      </c>
+      <c r="V29" s="8">
+        <v>522</v>
+      </c>
+      <c r="X29" s="8">
+        <v>549</v>
+      </c>
+      <c r="Y29" s="8">
+        <v>615</v>
+      </c>
+      <c r="AB29" s="8">
+        <v>895</v>
+      </c>
+      <c r="AC29" s="8">
+        <v>908</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
